--- a/data_voor_swing/aggregatietabellen/uitrustingsniveau_gewest.xlsx
+++ b/data_voor_swing/aggregatietabellen/uitrustingsniveau_gewest.xlsx
@@ -403,7 +403,7 @@
     <row r="2" spans="1:2" s="0" outlineLevel="0">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>a</t>
         </is>
       </c>
       <c r="B2" s="23">
@@ -413,7 +413,7 @@
     <row r="3" spans="1:2" s="0" outlineLevel="0">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>b1</t>
         </is>
       </c>
       <c r="B3" s="23">
@@ -423,7 +423,7 @@
     <row r="4" spans="1:2" s="0" outlineLevel="0">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>b2</t>
         </is>
       </c>
       <c r="B4" s="23">
@@ -433,7 +433,7 @@
     <row r="5" spans="1:2" s="0" outlineLevel="0">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>c1</t>
         </is>
       </c>
       <c r="B5" s="23">
@@ -443,7 +443,7 @@
     <row r="6" spans="1:2" s="0" outlineLevel="0">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>c2</t>
         </is>
       </c>
       <c r="B6" s="23">
@@ -453,7 +453,7 @@
     <row r="7" spans="1:2" s="0" outlineLevel="0">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>c3</t>
         </is>
       </c>
       <c r="B7" s="23">
@@ -463,7 +463,7 @@
     <row r="8" spans="1:2" s="0" outlineLevel="0">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>c4</t>
         </is>
       </c>
       <c r="B8" s="23">
